--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,22 +711,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E8" s="3">
         <v>57800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,20 +743,23 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,20 +775,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E10" s="3">
         <v>47900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +823,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>69600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>58000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,22 +885,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>22600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -897,8 +917,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E17" s="3">
         <v>81600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>151900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +992,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-145900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-82400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,23 +1040,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,23 +1070,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-148800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-83400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-152000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-83600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-152000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-83600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-59500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-187200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,23 +1422,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>14800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-59500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-187200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-59500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-187200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E41" s="3">
         <v>76300</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,17 +1711,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,17 +1775,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E46" s="3">
         <v>98300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,17 +1871,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E49" s="3">
         <v>68500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>320100</v>
+      </c>
+      <c r="E54" s="3">
         <v>168800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E59" s="3">
         <v>19000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E60" s="3">
         <v>21100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,17 +2219,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>192900</v>
+      </c>
+      <c r="E61" s="3">
         <v>192500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E66" s="3">
         <v>218200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,17 +2489,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>434000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-488000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-483400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-483400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-59500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-187200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,23 +2830,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3020,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-75400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2857,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2944,14 +3174,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-127100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3336,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E100" s="3">
         <v>73700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>143800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>70700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E102" s="3">
         <v>51800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,25 +714,28 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E8" s="3">
         <v>45600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>57800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -746,23 +749,26 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,23 +784,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E10" s="3">
         <v>37700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>47900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +836,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>69600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>58000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>22600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -920,8 +939,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,26 +988,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E17" s="3">
         <v>35200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>151900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,26 +1021,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-145900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-82400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,26 +1073,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,26 +1106,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-148800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-83400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,26 +1176,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-152000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-83600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1246,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,26 +1281,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-152000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-83600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1316,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-59500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-187200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,26 +1491,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,26 +1526,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-59500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-187200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,26 +1596,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-59500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-187200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1703,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>228600</v>
+      </c>
+      <c r="E41" s="3">
         <v>221700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,20 +1771,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E43" s="3">
         <v>16300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,20 +1806,23 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,20 +1841,23 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,20 +1876,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>262900</v>
+      </c>
+      <c r="E46" s="3">
         <v>250200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,20 +1946,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,20 +1981,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E49" s="3">
         <v>66600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>68500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,20 +2086,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2156,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>427100</v>
+      </c>
+      <c r="E54" s="3">
         <v>320100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>168800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,20 +2223,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>9300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,20 +2291,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2326,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E60" s="3">
         <v>31800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,20 +2361,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E61" s="3">
         <v>192900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>192500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2254,20 +2396,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2536,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E66" s="3">
         <v>225500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>218200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>434000</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2726,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-488200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-488000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-483400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2866,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E76" s="3">
         <v>94500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-483400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,26 +2976,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-59500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-187200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,26 +3028,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,26 +3236,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-75400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3288,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3081,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,26 +3391,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-127100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>136600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>73700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>143800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,26 +3651,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>145500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-58800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,51 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,31 +719,34 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E8" s="3">
         <v>56300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45600</v>
       </c>
-      <c r="F8" s="3">
-        <v>57800</v>
-      </c>
       <c r="G8" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -752,29 +757,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
-        <v>9900</v>
-      </c>
       <c r="G9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,29 +795,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E10" s="3">
         <v>46400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37700</v>
       </c>
-      <c r="F10" s="3">
-        <v>47900</v>
-      </c>
       <c r="G10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,32 +851,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4200</v>
       </c>
-      <c r="F12" s="3">
-        <v>7600</v>
-      </c>
       <c r="G12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I12" s="3">
         <v>69600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>58000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,31 +925,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>22600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -942,8 +963,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,32 +1016,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E17" s="3">
         <v>48500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35200</v>
       </c>
-      <c r="F17" s="3">
-        <v>81600</v>
-      </c>
       <c r="G17" s="3">
+        <v>29600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="I17" s="3">
         <v>151900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>82400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,32 +1052,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E18" s="3">
         <v>7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-23800</v>
-      </c>
       <c r="G18" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-145900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-82400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,32 +1108,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-14800</v>
-      </c>
       <c r="G20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,32 +1144,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-34800</v>
-      </c>
       <c r="G21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-148800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-83400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,32 +1220,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-38600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-152000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-83600</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,32 +1334,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-38600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-152000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-83600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,32 +1372,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-59500</v>
-      </c>
       <c r="G27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-187200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,32 +1562,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
-        <v>14800</v>
-      </c>
       <c r="G32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,32 +1600,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-59500</v>
-      </c>
       <c r="G33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-187200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,32 +1676,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-59500</v>
-      </c>
       <c r="G35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-187200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E41" s="3">
         <v>228600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>221700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,23 +1865,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E43" s="3">
         <v>22200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,23 +1903,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,23 +1941,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E46" s="3">
         <v>262900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>250200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,23 +2055,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,23 +2093,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E49" s="3">
         <v>162300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>66600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>68500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2098,14 +2219,14 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337300</v>
+      </c>
+      <c r="E54" s="3">
         <v>427100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>320100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>168800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,23 +2429,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E59" s="3">
         <v>132000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E60" s="3">
         <v>134500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,23 +2505,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E61" s="3">
         <v>194300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>192900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>192500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2399,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E66" s="3">
         <v>329900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>225500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>218200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2671,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>434000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-480800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-488200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-488000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-483400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E76" s="3">
         <v>97200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-483400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,32 +3172,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-59500</v>
-      </c>
       <c r="G81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-187200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,32 +3228,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
-        <v>3900</v>
-      </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,32 +3454,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-21900</v>
-      </c>
       <c r="G89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-75400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-28000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,18 +3525,18 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,32 +3622,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-127100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-50100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,32 +3828,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>136600</v>
       </c>
-      <c r="F100" s="3">
-        <v>73700</v>
-      </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>73800</v>
+      </c>
+      <c r="I100" s="3">
         <v>143800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>70700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,32 +3904,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="E102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>145500</v>
       </c>
-      <c r="F102" s="3">
-        <v>51800</v>
-      </c>
       <c r="G102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-58800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,34 +723,37 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E8" s="3">
         <v>59700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -760,32 +764,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,32 +805,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E10" s="3">
         <v>49300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4200</v>
       </c>
       <c r="G12" s="3">
         <v>4200</v>
       </c>
       <c r="H12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>69600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>58000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,16 +945,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -946,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>22600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E17" s="3">
         <v>45100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E18" s="3">
         <v>14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-145900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-82400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,26 +1152,26 @@
         <v>-7200</v>
       </c>
       <c r="E20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8500</v>
       </c>
       <c r="G20" s="3">
         <v>-8500</v>
       </c>
       <c r="H20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-6300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E21" s="3">
         <v>12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-148800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-83400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E23" s="3">
         <v>7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-38600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-152000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-83600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,13 +1304,16 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-38600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-152000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-83600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-187200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,26 +1644,26 @@
         <v>7200</v>
       </c>
       <c r="E32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F32" s="3">
         <v>8000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8500</v>
       </c>
       <c r="G32" s="3">
         <v>8500</v>
       </c>
       <c r="H32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I32" s="3">
         <v>6300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-187200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-187200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E41" s="3">
         <v>141200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>228600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>221700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E43" s="3">
         <v>23600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,26 +1999,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,26 +2040,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E46" s="3">
         <v>177700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>262900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>250200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,26 +2163,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,26 +2204,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E49" s="3">
         <v>157800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>162300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>66600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>68500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,14 +2342,14 @@
         <v>900</v>
       </c>
       <c r="F52" s="3">
+        <v>900</v>
+      </c>
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>359700</v>
+      </c>
+      <c r="E54" s="3">
         <v>337300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>427100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>320100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>168800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,26 +2566,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E59" s="3">
         <v>29000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>132000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E60" s="3">
         <v>33400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>134500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,26 +2648,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E61" s="3">
         <v>194900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>194300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>192900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>192500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E66" s="3">
         <v>229400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>329900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>225500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>218200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,11 +3011,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>434000</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-466700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-480800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-488200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-488000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-483400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E76" s="3">
         <v>107900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-483400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-187200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3238,26 +3437,26 @@
         <v>4700</v>
       </c>
       <c r="E83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F83" s="3">
         <v>4400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2000</v>
       </c>
       <c r="G83" s="3">
         <v>2000</v>
       </c>
       <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-75400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,13 +3731,14 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3525,20 +3746,20 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>-100</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,20 +3852,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3646,14 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-127100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4074,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>136600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>73800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>143800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>70700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-87500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>145500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>47100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-58800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,37 +727,40 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E8" s="3">
         <v>73800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>59700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>38000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -767,35 +771,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,35 +815,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E10" s="3">
         <v>61100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>49300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4200</v>
       </c>
       <c r="H12" s="3">
         <v>4200</v>
       </c>
       <c r="I12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>69600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,19 +965,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>26100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -969,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>22600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E17" s="3">
         <v>50500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>151900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,38 +1112,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>23300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-145900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-82400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,38 +1176,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7200</v>
+        <v>-5400</v>
       </c>
       <c r="E20" s="3">
         <v>-7200</v>
       </c>
       <c r="F20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-8500</v>
       </c>
       <c r="H20" s="3">
         <v>-8500</v>
       </c>
       <c r="I20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,38 +1218,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>20800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-36700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-148800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-83400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,38 +1306,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-38600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-152000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-83600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,17 +1350,20 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E26" s="3">
         <v>14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-38600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-83600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E27" s="3">
         <v>14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-187200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,38 +1702,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="E32" s="3">
         <v>7200</v>
       </c>
       <c r="F32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G32" s="3">
         <v>8000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>8500</v>
       </c>
       <c r="H32" s="3">
         <v>8500</v>
       </c>
       <c r="I32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J32" s="3">
         <v>6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E33" s="3">
         <v>14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-187200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E35" s="3">
         <v>14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-187200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E41" s="3">
         <v>159700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>141200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>228600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>221700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E43" s="3">
         <v>31200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,29 +2095,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E46" s="3">
         <v>204700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>177700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>262900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>250200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2271,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2175,20 +2283,20 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,29 +2315,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E49" s="3">
         <v>153100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>157800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>162300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>68500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,14 +2465,14 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>391100</v>
+      </c>
+      <c r="E54" s="3">
         <v>359700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>337300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>427100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>320100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>168800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,31 +2659,34 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E59" s="3">
         <v>34600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>132000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E60" s="3">
         <v>36600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>134500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,29 +2791,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E61" s="3">
         <v>195600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>194900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>194300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>192900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>192500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E66" s="3">
         <v>233100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>229400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>329900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>218200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,11 +3182,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>434000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-476300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-466700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-480800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-488200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-488000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-483400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E76" s="3">
         <v>126600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-483400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E81" s="3">
         <v>14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-187200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,26 +3639,26 @@
         <v>4700</v>
       </c>
       <c r="F83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G83" s="3">
         <v>4400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2000</v>
       </c>
       <c r="H83" s="3">
         <v>2000</v>
       </c>
       <c r="I83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E89" s="3">
         <v>18100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-75400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,37 +3952,38 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>-100</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,23 +4082,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3879,14 +4109,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-127100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4320,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>136600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>73800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>143800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>70700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4408,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-87500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>145500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>47100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-58800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,40 +730,43 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E8" s="3">
         <v>80700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>56300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -774,38 +777,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E9" s="3">
         <v>14600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,38 +824,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E10" s="3">
         <v>66100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>49300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,41 +892,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E12" s="3">
         <v>11700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4200</v>
       </c>
       <c r="I12" s="3">
         <v>4200</v>
       </c>
       <c r="J12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>69600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,22 +984,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>26100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -992,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>22600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1012,8 +1031,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E17" s="3">
         <v>85800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>151900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,41 +1141,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-145900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-82400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1209,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-7200</v>
       </c>
       <c r="F20" s="3">
         <v>-7200</v>
       </c>
       <c r="G20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-8500</v>
       </c>
       <c r="I20" s="3">
         <v>-8500</v>
       </c>
       <c r="J20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,41 +1254,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-36700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-148800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-83400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,41 +1348,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-38600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-152000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-83600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,20 +1395,23 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-38600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-152000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-83600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-187200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1771,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>7200</v>
       </c>
       <c r="F32" s="3">
         <v>7200</v>
       </c>
       <c r="G32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H32" s="3">
         <v>8000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>8500</v>
       </c>
       <c r="I32" s="3">
         <v>8500</v>
       </c>
       <c r="J32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-187200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-187200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>234300</v>
+      </c>
+      <c r="E41" s="3">
         <v>189700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>141200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>228600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>221700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E43" s="3">
         <v>33200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,32 +2190,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,32 +2237,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E46" s="3">
         <v>240700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>204700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>177700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>262900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>250200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,32 +2378,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,32 +2425,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E49" s="3">
         <v>148600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>153100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>157800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>162300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>68500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,13 +2566,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -2468,14 +2587,14 @@
         <v>900</v>
       </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>433400</v>
+      </c>
+      <c r="E54" s="3">
         <v>391100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>359700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>337300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>427100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>320100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>168800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,16 +2792,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>2000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2688,8 +2821,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2706,32 +2839,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E59" s="3">
         <v>41400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E60" s="3">
         <v>47600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>134500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,32 +2933,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E61" s="3">
         <v>190100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>195600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>194900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>194300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>192900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>192500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,32 +2980,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E66" s="3">
         <v>239100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>225500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>218200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,11 +3352,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>434000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-453600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-476300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-466700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-480800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-488200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-488000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-483400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E76" s="3">
         <v>152000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>97200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-483400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-187200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +3824,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E83" s="3">
         <v>4700</v>
@@ -3642,26 +3840,26 @@
         <v>4700</v>
       </c>
       <c r="G83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H83" s="3">
         <v>4400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
       </c>
       <c r="J83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E89" s="3">
         <v>30400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-75400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,40 +4172,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>-100</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-100</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,26 +4311,29 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4112,14 +4341,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-127100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,41 +4565,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>136600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>73800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>143800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>70700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E102" s="3">
         <v>30000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-87500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>145500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,43 +734,46 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E8" s="3">
         <v>91200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -780,41 +784,44 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="3">
         <v>17800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,41 +834,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>70600</v>
+      </c>
+      <c r="E10" s="3">
         <v>73400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,44 +906,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4200</v>
       </c>
       <c r="J12" s="3">
         <v>4200</v>
       </c>
       <c r="K12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>69600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,25 +1004,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>26100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1014,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>22600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1034,31 +1054,34 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>5100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E17" s="3">
         <v>62600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>151900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E18" s="3">
         <v>28600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-145900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-82400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,44 +1243,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-7200</v>
       </c>
       <c r="G20" s="3">
         <v>-7200</v>
       </c>
       <c r="H20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-8500</v>
       </c>
       <c r="J20" s="3">
         <v>-8500</v>
       </c>
       <c r="K20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E21" s="3">
         <v>29200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-36700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-148800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-83400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E23" s="3">
         <v>24500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-38600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-152000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-83600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,23 +1441,26 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>22700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-38600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-152000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-83600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>22700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-187200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,44 +1841,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7200</v>
       </c>
       <c r="G32" s="3">
         <v>7200</v>
       </c>
       <c r="H32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I32" s="3">
         <v>8000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8500</v>
       </c>
       <c r="J32" s="3">
         <v>8500</v>
       </c>
       <c r="K32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>22700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-187200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>22700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-187200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E41" s="3">
         <v>234300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>189700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>141200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>228600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>221700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,35 +2236,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E43" s="3">
         <v>34800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>15200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,35 +2286,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,35 +2336,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>280300</v>
+      </c>
+      <c r="E46" s="3">
         <v>284400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>204700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>177700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>262900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>250200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,35 +2486,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,35 +2536,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E49" s="3">
         <v>143900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>148600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>153100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>157800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>162300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>68500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,16 +2686,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2590,14 +2710,14 @@
         <v>900</v>
       </c>
       <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E54" s="3">
         <v>433400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>391100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>359700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>337300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>427100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>320100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>168800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,8 +2940,8 @@
       <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>2000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2824,8 +2958,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2842,35 +2976,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E59" s="3">
         <v>50800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>132000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E60" s="3">
         <v>53800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,35 +3076,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E61" s="3">
         <v>190000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>190100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>195600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>194900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>194300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>192900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>192500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2983,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>249500</v>
+      </c>
+      <c r="E66" s="3">
         <v>246900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>239100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>229400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>329900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>225500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>218200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>434000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-432100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-453600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-476300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-466700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-480800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-488200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-488000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-483400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E76" s="3">
         <v>186500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>107900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>97200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-483400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>22700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-187200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,16 +4023,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4700</v>
       </c>
       <c r="F83" s="3">
         <v>4700</v>
@@ -3843,26 +4042,26 @@
         <v>4700</v>
       </c>
       <c r="H83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I83" s="3">
         <v>4400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2000</v>
       </c>
       <c r="J83" s="3">
         <v>2000</v>
       </c>
       <c r="K83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E89" s="3">
         <v>37500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-75400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4182,34 +4403,34 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>-100</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-100</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,29 +4541,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4344,14 +4574,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-127100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +4811,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>136600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>73800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>143800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>70700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>44600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-87500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>145500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-58800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,46 +738,49 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E8" s="3">
         <v>85300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>91200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>80700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>59700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -787,44 +791,47 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E9" s="3">
         <v>14700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,44 +844,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E10" s="3">
         <v>70600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>49300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,47 +920,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4200</v>
       </c>
       <c r="K12" s="3">
         <v>4200</v>
       </c>
       <c r="L12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>69600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>58000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,28 +1024,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>26100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1037,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>22600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1057,17 +1077,20 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1106,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E17" s="3">
         <v>57800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>151900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,47 +1201,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E18" s="3">
         <v>27500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-145900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-82400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,47 +1277,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-7200</v>
       </c>
       <c r="H20" s="3">
         <v>-7200</v>
       </c>
       <c r="I20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-8500</v>
       </c>
       <c r="K20" s="3">
         <v>-8500</v>
       </c>
       <c r="L20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,47 +1328,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E21" s="3">
         <v>28600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-36700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-148800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-83400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E23" s="3">
         <v>23400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-38600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-152000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,26 +1487,29 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E26" s="3">
         <v>21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-38600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-152000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-83600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-187200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,47 +1911,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>7200</v>
       </c>
       <c r="H32" s="3">
         <v>7200</v>
       </c>
       <c r="I32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J32" s="3">
         <v>8000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>8500</v>
       </c>
       <c r="K32" s="3">
         <v>8500</v>
       </c>
       <c r="L32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-187200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-187200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E41" s="3">
         <v>224500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>234300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>228600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>221700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,31 +2276,34 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>17600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E43" s="3">
         <v>38100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2382,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E46" s="3">
         <v>280300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>284400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>204700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>177700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>262900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>250200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,31 +2541,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,38 +2647,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E49" s="3">
         <v>178800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>143900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>148600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>153100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>157800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>162300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>68500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2698,10 +2818,10 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2713,14 +2833,14 @@
         <v>900</v>
       </c>
       <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E54" s="3">
         <v>464000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>433400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>391100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>359700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>337300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>427100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>320100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,8 +3077,8 @@
       <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>2000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2961,8 +3095,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E59" s="3">
         <v>47600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>132000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E60" s="3">
         <v>56500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,38 +3219,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E61" s="3">
         <v>189900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>190000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>190100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>195600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>194900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>194300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>192900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>192500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258500</v>
+      </c>
+      <c r="E66" s="3">
         <v>249500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>246900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>239100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>233100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>329900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>218200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>434000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-432100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-453600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-476300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-466700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-480800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-488200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-488000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-483400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E76" s="3">
         <v>214500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>186500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>107900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-483400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-187200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,19 +4222,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4700</v>
       </c>
       <c r="G83" s="3">
         <v>4700</v>
@@ -4045,26 +4244,26 @@
         <v>4700</v>
       </c>
       <c r="I83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J83" s="3">
         <v>4400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>2000</v>
       </c>
       <c r="L83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E89" s="3">
         <v>28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>37500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-75400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,34 +4627,34 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>-100</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-100</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,32 +4771,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4577,14 +4807,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-127100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>136600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>73800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>143800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>70700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-87500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>145500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,49 +742,52 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E8" s="3">
         <v>107000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>85300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>80700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>59700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6000</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -794,47 +798,50 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,47 +854,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E10" s="3">
         <v>88100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>73400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>46400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +934,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E12" s="3">
         <v>12700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4200</v>
       </c>
       <c r="L12" s="3">
         <v>4200</v>
       </c>
       <c r="M12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>69600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>58000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,31 +1044,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>26100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1060,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>22600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,11 +1112,11 @@
         <v>6000</v>
       </c>
       <c r="E15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,8 +1132,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E17" s="3">
         <v>73900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>85800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>151900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>82400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,50 +1231,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E18" s="3">
         <v>33100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-145900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-82400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,41 +1321,41 @@
         <v>-3900</v>
       </c>
       <c r="E20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-7200</v>
       </c>
       <c r="I20" s="3">
         <v>-7200</v>
       </c>
       <c r="J20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-8500</v>
       </c>
       <c r="L20" s="3">
         <v>-8500</v>
       </c>
       <c r="M20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,50 +1365,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>35300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-36700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-148800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-83400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>29200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-38600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-152000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,29 +1533,32 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,50 +1645,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E26" s="3">
         <v>23500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-38600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-83600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,50 +1701,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E27" s="3">
         <v>23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-187200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,41 +1993,41 @@
         <v>3900</v>
       </c>
       <c r="E32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7200</v>
       </c>
       <c r="I32" s="3">
         <v>7200</v>
       </c>
       <c r="J32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K32" s="3">
         <v>8000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>8500</v>
       </c>
       <c r="L32" s="3">
         <v>8500</v>
       </c>
       <c r="M32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="N32" s="3">
         <v>6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,50 +2037,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E33" s="3">
         <v>23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-187200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,50 +2149,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E35" s="3">
         <v>23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-187200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E41" s="3">
         <v>236500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>234300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>189700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>141200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>221700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,17 +2366,20 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E42" s="3">
         <v>17600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,8 +2395,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E43" s="3">
         <v>49800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,41 +2478,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>382100</v>
+      </c>
+      <c r="E46" s="3">
         <v>322700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>280300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>284400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>240700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>177700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>262900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>250200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,17 +2646,20 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
         <v>4700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,8 +2675,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E49" s="3">
         <v>172900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>178800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>143900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>148600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>153100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>157800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>162300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>68500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,22 +2926,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>82900</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>4300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -2836,14 +2956,14 @@
         <v>900</v>
       </c>
       <c r="K52" s="3">
+        <v>900</v>
+      </c>
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>643500</v>
+      </c>
+      <c r="E54" s="3">
         <v>505000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>464000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>433400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>391100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>359700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>337300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>427100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>320100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>168800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,8 +3214,8 @@
       <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>2000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -3098,8 +3232,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E59" s="3">
         <v>57100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>41400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>132000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E60" s="3">
         <v>65800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>134500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3362,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E61" s="3">
         <v>189800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>189900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>190000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>190100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>195600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>194900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>194300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>192900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>192500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E66" s="3">
         <v>258500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>249500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>246900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>239100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>233100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>229400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>329900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>218200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,11 +3865,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>434000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-408600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-432100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-453600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-476300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-466700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-480800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-488200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-488000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-483400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E76" s="3">
         <v>246500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>186500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-483400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,50 +4341,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E81" s="3">
         <v>23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-187200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4232,13 +4431,13 @@
         <v>6100</v>
       </c>
       <c r="E83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4700</v>
       </c>
       <c r="H83" s="3">
         <v>4700</v>
@@ -4247,26 +4446,26 @@
         <v>4700</v>
       </c>
       <c r="J83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K83" s="3">
         <v>4400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2000</v>
       </c>
       <c r="L83" s="3">
         <v>2000</v>
       </c>
       <c r="M83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E89" s="3">
         <v>33700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-75400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-28000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,13 +4835,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4630,34 +4851,34 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>-100</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,35 +5001,38 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4810,14 +5040,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-127100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50100</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,50 +5303,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>136600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>73800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>143800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>70700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E102" s="3">
         <v>12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-87500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>145500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,52 +745,55 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E8" s="3">
         <v>117200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>107000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>91200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>80700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>59700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -801,50 +804,53 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E9" s="3">
         <v>23000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,50 +863,53 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E10" s="3">
         <v>94200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>88100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +947,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E12" s="3">
         <v>40500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4200</v>
       </c>
       <c r="M12" s="3">
         <v>4200</v>
       </c>
       <c r="N12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>69600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,34 +1063,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>26100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1083,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>22600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,11 +1137,11 @@
         <v>6000</v>
       </c>
       <c r="F15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1157,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E17" s="3">
         <v>105300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>73900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>85800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>151900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>82400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,53 +1260,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E18" s="3">
         <v>11900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-145900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-82400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,53 +1344,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3900</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
         <v>-3900</v>
       </c>
       <c r="F20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-7200</v>
       </c>
       <c r="J20" s="3">
         <v>-7200</v>
       </c>
       <c r="K20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-8500</v>
       </c>
       <c r="M20" s="3">
         <v>-8500</v>
       </c>
       <c r="N20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,53 +1401,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E21" s="3">
         <v>14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>35300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-36700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-148800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,53 +1519,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-38600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-152000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-83600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,32 +1578,35 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-80000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E26" s="3">
         <v>87900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-38600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-83600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E27" s="3">
         <v>87900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-49100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-187200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,53 +2050,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
         <v>3900</v>
       </c>
       <c r="F32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7200</v>
       </c>
       <c r="J32" s="3">
         <v>7200</v>
       </c>
       <c r="K32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L32" s="3">
         <v>8000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>8500</v>
       </c>
       <c r="M32" s="3">
         <v>8500</v>
       </c>
       <c r="N32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E33" s="3">
         <v>87900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-49100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-187200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E35" s="3">
         <v>87900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-49100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-187200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2398,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E41" s="3">
         <v>261300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>236500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>234300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>189700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>141200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>221700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,20 +2455,23 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E42" s="3">
         <v>46400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2487,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2425,44 +2514,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E43" s="3">
         <v>55100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,44 +2573,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,44 +2632,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2691,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400300</v>
+      </c>
+      <c r="E46" s="3">
         <v>382100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>322700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>280300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>284400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>240700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>177700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>262900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>250200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,20 +2750,23 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2678,8 +2782,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2705,44 +2809,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,44 +2868,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E49" s="3">
         <v>166900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>172900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>178800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>143900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>148600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>153100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>157800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>162300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>66600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>68500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,25 +3045,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E52" s="3">
         <v>82900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>4300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
@@ -2959,14 +3078,14 @@
         <v>900</v>
       </c>
       <c r="L52" s="3">
+        <v>900</v>
+      </c>
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3163,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>673900</v>
+      </c>
+      <c r="E54" s="3">
         <v>643500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>505000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>464000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>433400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>391100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>359700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>337300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>427100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>320100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>168800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3270,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3217,8 +3350,8 @@
       <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>2000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -3235,8 +3368,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3253,44 +3386,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E59" s="3">
         <v>95300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>132000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3445,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E60" s="3">
         <v>107400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>134500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,44 +3504,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E61" s="3">
         <v>189700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>189800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>190000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>190100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>195600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>194900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>194300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>192900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>192500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3563,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3430,35 +3575,35 @@
         <v>2500</v>
       </c>
       <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3799,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E66" s="3">
         <v>299600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>258500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>249500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>246900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>239100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>233100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>229400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>225500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>218200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,11 +4035,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>434000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4117,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-272100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-320600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-408600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-432100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-453600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-476300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-466700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-480800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-488200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-488000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-483400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4353,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>402800</v>
+      </c>
+      <c r="E76" s="3">
         <v>343900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>246500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>186500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>107900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-483400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E81" s="3">
         <v>87900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-49100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-187200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4434,13 +4632,13 @@
         <v>6100</v>
       </c>
       <c r="F83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4700</v>
       </c>
       <c r="I83" s="3">
         <v>4700</v>
@@ -4449,26 +4647,26 @@
         <v>4700</v>
       </c>
       <c r="K83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L83" s="3">
         <v>4400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2000</v>
       </c>
       <c r="M83" s="3">
         <v>2000</v>
       </c>
       <c r="N83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E89" s="3">
         <v>55200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-75400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,17 +5055,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4854,34 +5074,34 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>-100</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-100</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,38 +5230,41 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5043,14 +5272,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-127100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,53 +5548,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>136600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>73800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>143800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>70700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,53 +5666,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E102" s="3">
         <v>24800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-87500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>145500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>47100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-58800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,55 +749,58 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E8" s="3">
         <v>128300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>117200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>107000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>85300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>91200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>59700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6000</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -807,53 +811,56 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E9" s="3">
         <v>26900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,53 +873,56 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E10" s="3">
         <v>101400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>94200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>88100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,56 +961,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E12" s="3">
         <v>10100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4200</v>
       </c>
       <c r="N12" s="3">
         <v>4200</v>
       </c>
       <c r="O12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P12" s="3">
         <v>3400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>69600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>58000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,37 +1083,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>26100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1105,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>22600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1140,11 +1163,11 @@
         <v>6000</v>
       </c>
       <c r="G15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H15" s="3">
         <v>5100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1183,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E17" s="3">
         <v>80700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>105300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>85800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>52100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>151900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>82400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1290,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E18" s="3">
         <v>47600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-145900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-82400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,56 +1378,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-3900</v>
       </c>
       <c r="F20" s="3">
         <v>-3900</v>
       </c>
       <c r="G20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-7200</v>
       </c>
       <c r="K20" s="3">
         <v>-7200</v>
       </c>
       <c r="L20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-8500</v>
       </c>
       <c r="N20" s="3">
         <v>-8500</v>
       </c>
       <c r="O20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,56 +1438,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E21" s="3">
         <v>50200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-36700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-148800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-83400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>44100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-38600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-83600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,35 +1624,38 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-80000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E26" s="3">
         <v>48500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-38600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-83600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1810,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E27" s="3">
         <v>48500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-49100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,56 +2120,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3900</v>
       </c>
       <c r="F32" s="3">
         <v>3900</v>
       </c>
       <c r="G32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>7200</v>
       </c>
       <c r="K32" s="3">
         <v>7200</v>
       </c>
       <c r="L32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M32" s="3">
         <v>8000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>8500</v>
       </c>
       <c r="N32" s="3">
         <v>8500</v>
       </c>
       <c r="O32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2182,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E33" s="3">
         <v>48500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-49100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2306,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E35" s="3">
         <v>48500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-49100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,47 +2485,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E41" s="3">
         <v>243800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>261300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>236500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>234300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>189700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>228600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>221700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,23 +2545,26 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E42" s="3">
         <v>79300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2580,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2517,47 +2607,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E43" s="3">
         <v>54700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,47 +2669,50 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,47 +2731,50 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,47 +2793,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>418100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>382100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>322700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>280300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>284400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>240700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>177700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>262900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>250200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,23 +2855,26 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E47" s="3">
         <v>22600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,8 +2890,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2812,8 +2917,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2821,38 +2929,38 @@
         <v>2900</v>
       </c>
       <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>900</v>
       </c>
       <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,47 +2979,50 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E49" s="3">
         <v>161000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>166900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>172900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>178800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>143900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>148600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>153100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>157800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>162300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>66600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>68500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,28 +3165,31 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E52" s="3">
         <v>87200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>4300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -3081,14 +3201,14 @@
         <v>900</v>
       </c>
       <c r="M52" s="3">
+        <v>900</v>
+      </c>
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,47 +3289,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>715100</v>
+      </c>
+      <c r="E54" s="3">
         <v>673900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>643500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>505000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>464000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>433400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>391100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>359700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>337300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>427100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>320100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,47 +3401,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,13 +3461,16 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
         <v>2000</v>
@@ -3353,8 +3487,8 @@
       <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>2000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3505,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3389,47 +3523,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E59" s="3">
         <v>73100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>132000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,47 +3585,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E60" s="3">
         <v>78900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,47 +3647,50 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E61" s="3">
         <v>189600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>189700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>189900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>190000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>190100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>195600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>194900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>194300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>192900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>192500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3566,47 +3709,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>2500</v>
       </c>
       <c r="F62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,47 +3957,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>272100</v>
+      </c>
+      <c r="E66" s="3">
         <v>271000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>299600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>258500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>249500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>246900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>239100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>233100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>229400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>329900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>225500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>218200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4038,11 +4206,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>434000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,47 +4291,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-272100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-320600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-408600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-432100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-453600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-476300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-466700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-480800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-488200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-488000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-483400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,47 +4539,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E76" s="3">
         <v>402800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>343900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>246500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>214500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>186500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>107900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-483400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4730,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E81" s="3">
         <v>48500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-49100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-187200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,13 +4834,13 @@
         <v>6100</v>
       </c>
       <c r="G83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4700</v>
       </c>
       <c r="J83" s="3">
         <v>4700</v>
@@ -4650,26 +4849,26 @@
         <v>4700</v>
       </c>
       <c r="L83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M83" s="3">
         <v>4400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2000</v>
       </c>
       <c r="N83" s="3">
         <v>2000</v>
       </c>
       <c r="O83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E89" s="3">
         <v>26700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-26700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-28000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5065,46 +5286,46 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>-100</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-100</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,41 +5460,44 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5275,14 +5505,14 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-50100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5794,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>136600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>73800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>143800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>70700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-87500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>145500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>47100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -752,58 +753,61 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E8" s="3">
         <v>119100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>117200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>85300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>91200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>80700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>59700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6000</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -814,56 +818,59 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,56 +883,59 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E10" s="3">
         <v>98300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>101400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>94200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>46400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,59 +975,60 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
         <v>13300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4200</v>
       </c>
       <c r="O12" s="3">
         <v>4200</v>
       </c>
       <c r="P12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>69600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>58000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,40 +1103,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>26100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1128,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>22600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1148,13 +1168,16 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>6000</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>6000</v>
@@ -1166,11 +1189,11 @@
         <v>6000</v>
       </c>
       <c r="H15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1209,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,59 +1257,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E17" s="3">
         <v>78700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>85800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>151900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>82400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,59 +1320,62 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E18" s="3">
         <v>40400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-145900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-82400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,59 +1412,60 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-3900</v>
       </c>
       <c r="G20" s="3">
         <v>-3900</v>
       </c>
       <c r="H20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-7200</v>
       </c>
       <c r="L20" s="3">
         <v>-7200</v>
       </c>
       <c r="M20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-8500</v>
       </c>
       <c r="O20" s="3">
         <v>-8500</v>
       </c>
       <c r="P20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,59 +1475,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E21" s="3">
         <v>43800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-148800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-83400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1540,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,59 +1605,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E23" s="3">
         <v>37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-152000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-83600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1627,38 +1670,41 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-80000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,59 +1800,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E26" s="3">
         <v>29500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>48500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-152000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-83600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,59 +1865,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E27" s="3">
         <v>29500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-187200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,59 +2190,62 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3900</v>
       </c>
       <c r="G32" s="3">
         <v>3900</v>
       </c>
       <c r="H32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>7200</v>
       </c>
       <c r="L32" s="3">
         <v>7200</v>
       </c>
       <c r="M32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N32" s="3">
         <v>8000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>8500</v>
       </c>
       <c r="O32" s="3">
         <v>8500</v>
       </c>
       <c r="P32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,59 +2255,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E33" s="3">
         <v>29500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>87900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-187200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,59 +2385,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E35" s="3">
         <v>29500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>87900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-187200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,64 +2450,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2520,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,50 +2572,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>317400</v>
+      </c>
+      <c r="E41" s="3">
         <v>288000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>261300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>236500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>234300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>189700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>159700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>228600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>221700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>76300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,26 +2635,29 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E42" s="3">
         <v>55900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>79300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2673,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2610,50 +2700,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E43" s="3">
         <v>52600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,50 +2765,53 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,50 +2830,53 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,50 +2895,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>455600</v>
+      </c>
+      <c r="E46" s="3">
         <v>418100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>382100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>322700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>280300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>284400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>240700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>177700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>262900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>250200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>98300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,26 +2960,29 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E47" s="3">
         <v>48500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2893,8 +2998,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2920,50 +3025,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2900</v>
       </c>
       <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>900</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
       </c>
       <c r="L48" s="3">
+        <v>900</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,50 +3090,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E49" s="3">
         <v>155000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>161000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>166900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>172900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>178800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>143900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>148600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>153100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>157800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>162300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>66600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>68500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,31 +3285,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E52" s="3">
         <v>90600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>87200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>4300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -3204,14 +3324,14 @@
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>900</v>
+      </c>
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,50 +3415,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>760200</v>
+      </c>
+      <c r="E54" s="3">
         <v>715100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>673900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>643500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>505000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>464000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>433400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>391100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>337300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>427100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>320100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>168800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,50 +3532,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,16 +3595,19 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2000</v>
       </c>
       <c r="F58" s="3">
         <v>2000</v>
@@ -3490,8 +3624,8 @@
       <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>2000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -3508,8 +3642,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3526,50 +3660,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E59" s="3">
         <v>72400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>132000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,50 +3725,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E60" s="3">
         <v>85400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>134500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,50 +3790,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E61" s="3">
         <v>185100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>189600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>189800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>189900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>190000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>190100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>195600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>194900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>194300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>192900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>192500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3712,50 +3855,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2500</v>
       </c>
       <c r="F62" s="3">
         <v>2500</v>
       </c>
       <c r="G62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,50 +4115,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E66" s="3">
         <v>272100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>271000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>299600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>258500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>249500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>246900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>239100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>229400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>329900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>225500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>218200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4209,11 +4377,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>434000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,50 +4465,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-208300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-242600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-272100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-320600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-408600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-432100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-453600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-476300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-466700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-480800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-488200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-488000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-483400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,50 +4725,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>485200</v>
+      </c>
+      <c r="E76" s="3">
         <v>443000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>402800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>343900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>246500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>214500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>186500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>107900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-483400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,64 +4855,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,59 +4925,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E81" s="3">
         <v>29500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>87900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-187200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4837,13 +5036,13 @@
         <v>6100</v>
       </c>
       <c r="H83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4700</v>
       </c>
       <c r="K83" s="3">
         <v>4700</v>
@@ -4852,26 +5051,26 @@
         <v>4700</v>
       </c>
       <c r="M83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N83" s="3">
         <v>4400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2000</v>
       </c>
       <c r="O83" s="3">
         <v>2000</v>
       </c>
       <c r="P83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,59 +5405,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E89" s="3">
         <v>42600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>37500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-75400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-28000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,58 +5497,59 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>-100</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,44 +5690,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5508,14 +5738,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-127100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50100</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,59 +6040,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>136600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>73800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>143800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>70700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,59 +6170,62 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E102" s="3">
         <v>44200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-87500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>145500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>47100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-58800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HRMY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>HRMY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,61 +757,64 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E8" s="3">
         <v>134200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>119100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>117200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>85300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>80700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>59700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>56300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6000</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -821,59 +825,62 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E9" s="3">
         <v>25000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,59 +893,62 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E10" s="3">
         <v>109200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>101400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>88100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>46400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,62 +989,63 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4200</v>
       </c>
       <c r="P12" s="3">
         <v>4200</v>
       </c>
       <c r="Q12" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R12" s="3">
         <v>3400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>69600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>58000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,43 +1123,46 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>9800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>26100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1151,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>22600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1171,16 +1191,19 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
-        <v>6000</v>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>6000</v>
@@ -1192,11 +1215,11 @@
         <v>6000</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
         <v>5100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1235,8 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,62 +1284,63 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E17" s="3">
         <v>87300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>105300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>73900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>57800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>85800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>52100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>151900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>82400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,62 +1350,65 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E18" s="3">
         <v>46900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-32300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-145900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-82400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,62 +1446,63 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3900</v>
       </c>
       <c r="H20" s="3">
         <v>-3900</v>
       </c>
       <c r="I20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-7200</v>
       </c>
       <c r="M20" s="3">
         <v>-7200</v>
       </c>
       <c r="N20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-8500</v>
       </c>
       <c r="P20" s="3">
         <v>-8500</v>
       </c>
       <c r="Q20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="R20" s="3">
         <v>-6300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,62 +1512,65 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E21" s="3">
         <v>50200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-36700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-148800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-83400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,62 +1648,65 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E23" s="3">
         <v>44100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-38600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-152000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-83600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,41 +1716,44 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E24" s="3">
         <v>9800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-80000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,62 +1852,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E26" s="3">
         <v>34300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>87900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-38600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-152000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-83600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,62 +1920,65 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E27" s="3">
         <v>34300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>87900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-49100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-187200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,62 +2260,65 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3900</v>
       </c>
       <c r="H32" s="3">
         <v>3900</v>
       </c>
       <c r="I32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>7200</v>
       </c>
       <c r="M32" s="3">
         <v>7200</v>
       </c>
       <c r="N32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="O32" s="3">
         <v>8000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>8500</v>
       </c>
       <c r="P32" s="3">
         <v>8500</v>
       </c>
       <c r="Q32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="R32" s="3">
         <v>6300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,62 +2328,65 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E33" s="3">
         <v>34300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>87900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-49100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-187200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,62 +2464,65 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E35" s="3">
         <v>34300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>87900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-49100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-187200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,67 +2532,70 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2523,8 +2605,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>324600</v>
+      </c>
+      <c r="E41" s="3">
         <v>317400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>288000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>243800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>261300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>236500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>234300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>159700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>221700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>76300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,29 +2725,32 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E42" s="3">
         <v>53600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>79300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,8 +2766,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2703,53 +2793,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E43" s="3">
         <v>63800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>52600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>55100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,53 +2861,56 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E44" s="3">
         <v>4900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E46" s="3">
         <v>455600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>418100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>382100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>322700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>280300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>284400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>240700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>177700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>262900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>250200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>98300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,29 +3065,32 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E47" s="3">
         <v>58700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,8 +3106,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2900</v>
       </c>
       <c r="F48" s="3">
         <v>2900</v>
       </c>
       <c r="G48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>900</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
       </c>
       <c r="M48" s="3">
+        <v>900</v>
+      </c>
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,53 +3201,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E49" s="3">
         <v>149000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>155000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>161000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>166900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>172900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>178800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>143900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>153100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>157800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>162300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>66600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>68500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,34 +3405,37 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E52" s="3">
         <v>94200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>87200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>900</v>
@@ -3327,14 +3447,14 @@
         <v>900</v>
       </c>
       <c r="O52" s="3">
+        <v>900</v>
+      </c>
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>777800</v>
+      </c>
+      <c r="E54" s="3">
         <v>760200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>715100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>673900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>643500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>505000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>464000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>433400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>359700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>337300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>427100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>320100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>168800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,19 +3729,22 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2000</v>
       </c>
       <c r="G58" s="3">
         <v>2000</v>
@@ -3627,8 +3761,8 @@
       <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>2000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3645,8 +3779,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E59" s="3">
         <v>75500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>132000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E60" s="3">
         <v>93000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>107400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>134500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,53 +3933,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E61" s="3">
         <v>180500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>185100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>189600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>189700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>189800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>189900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>190000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>190100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>195600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>194900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>194300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>192900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>192500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4001,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2500</v>
       </c>
       <c r="G62" s="3">
         <v>2500</v>
       </c>
       <c r="H62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>296400</v>
+      </c>
+      <c r="E66" s="3">
         <v>275000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>272100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>271000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>299600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>258500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>249500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>246900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>239100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>229400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>329900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>225500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>218200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4380,11 +4548,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>434000</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,53 +4639,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-208300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-242600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-272100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-320600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-408600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-432100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-453600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-476300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-466700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-480800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-488200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-488000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-483400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>481300</v>
+      </c>
+      <c r="E76" s="3">
         <v>485200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>443000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>402800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>246500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>186500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>152000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>94500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-483400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,67 +5047,70 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4928,62 +5120,65 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E81" s="3">
         <v>34300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>87900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-49100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-187200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,13 +5238,13 @@
         <v>6100</v>
       </c>
       <c r="I83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4700</v>
       </c>
       <c r="L83" s="3">
         <v>4700</v>
@@ -5054,26 +5253,26 @@
         <v>4700</v>
       </c>
       <c r="N83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O83" s="3">
         <v>4400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2000</v>
       </c>
       <c r="P83" s="3">
         <v>2000</v>
       </c>
       <c r="Q83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,62 +5622,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E89" s="3">
         <v>37100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>55200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-26700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-75400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-28000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,61 +5718,62 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>-100</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>-100</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,47 +5920,50 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5741,14 +5971,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-127100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50100</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,62 +6286,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>136600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>73800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>143800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>70700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6108,8 +6354,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,62 +6422,65 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>29000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-87500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>145500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>47100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-58800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
